--- a/outputs/MYRTLE4.xlsx
+++ b/outputs/MYRTLE4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Finding out what is being presented at the conference is a logical step toward deciding whether or not to attend the conference. This information would help Abi determine the relevance and value of the conference to her interests and work. Given her motivation to accomplish tasks efficiently and her comprehensive information processing style, she would consider this subgoal essential for making an informed decision.</t>
+Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, her comprehensive information processing style would lead her to gather detailed information about the conference presentations to make an informed decision.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 3. Attitude Toward Risk
-Why: The action of scrolling down to find information is straightforward and aligns with Abi's comprehensive information processing style. The page layout clearly presents the relevant sections, making it evident that additional information can be found by scrolling. Since scrolling is a low-risk action that doesn't require clicking on unfamiliar elements, Abi is likely to feel comfortable doing it.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Scrolling down is a straightforward action that aligns with Abi's information processing style, as it allows her to gather more information comprehensively. The page layout is clear, and the content is organized in a way that makes it easy for Abi to understand that she needs to scroll down to find more details about the conference presentations. This action does not require high computer self-efficacy, as it is a basic and familiar task.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information about the conference, such as keynotes and events, it does not offer a comprehensive list of all presentations. Abi's comprehensive information processing style means she requires detailed information to feel confident she is making progress. Additionally, with low computer self-efficacy, Abi may not feel assured that she has found all the relevant information just by scrolling. The page should provide clearer guidance or direct links to detailed schedules and presentations to ensure Abi feels she has all the necessary information.</t>
+Why: While scrolling down provides some information about the conference, such as keynotes and a schedule overview, it does not provide comprehensive details about all the presentations. Abi's comprehensive information processing style means she needs detailed information to make an informed decision. The page does not provide a complete list of presentations or detailed descriptions, which may leave Abi uncertain about whether she has all the necessary information. Additionally, her low computer self-efficacy might make her hesitant to explore further if the information is not immediately clear and complete.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 3. Attitude Towards Risk
-Why: The action of scrolling down is a straightforward task that aligns with Abi's information processing style. The webpage clearly shows the start of detailed information about the conference, such as keynotes and events. This makes it apparent that more information can be found by scrolling further. Since scrolling is a low-risk action that doesn't require interacting with unfamiliar elements, Abi is likely to proceed with it confidently.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page layout is clear and provides a logical flow of information. Abi can see that there are keynotes and a schedule overview listed, which indicates that more information is available if she scrolls down. This aligns with her information processing style, as she is likely to scroll down to gather more details. Additionally, scrolling is a basic action that does not require high computer self-efficacy, making it a comfortable step for Abi to take.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information about the conference, such as keynotes and events, it does not offer a comprehensive list of all presentations. Abi’s comprehensive information processing style means she requires detailed information to feel confident she is making progress. Additionally, due to her low computer self-efficacy, Abi may not feel assured that she has found all the relevant information just by scrolling. The page should provide clearer guidance or direct links to detailed schedules and presentations to ensure Abi feels she has all the necessary information.</t>
+Why: After scrolling down, Abi will see some information about keynotes and a schedule overview, but this does not provide comprehensive details about all the presentations at the conference. Abi's comprehensive information processing style means she needs detailed and complete information to make an informed decision. The page does not provide a full list of presentations or detailed descriptions, which may leave Abi uncertain about whether she has all the necessary information. Additionally, her low computer self-efficacy might make her hesitant to explore further if the information is not immediately clear and complete.</t>
         </is>
       </c>
     </row>
@@ -471,16 +471,16 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The link "Program of POPL 2019" is clearly labeled and positioned prominently on the page. This makes it apparent to Abi that clicking this link will provide more detailed information about the conference program. The straightforward labeling reduces the cognitive load and uncertainty, aligning with her need for clear guidance due to her low computer self-efficacy. Additionally, her comprehensive information processing style will be satisfied with the expectation of detailed information upon clicking the link.</t>
+Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify and understand that clicking it will provide more detailed information about the conference program. This aligns with her comprehensive information processing style, as she is likely to seek out detailed information. Additionally, the action of clicking a clearly labeled link is straightforward and does not require high computer self-efficacy, making it a comfortable step for Abi to take.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking the "Program of POPL 2019" link, Abi lands on a page that comprehensively lists the conference program. This aligns with her comprehensive information processing style, as the page provides detailed information about what is being presented at the conference. The structured schedule and clear presentation of sessions and events will make Abi feel confident that she is making progress toward her goal and obtaining the information she needs. The detailed layout also supports her process-oriented learning style by providing a clear and thorough overview of the conference content.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While Abi will know she is making progress toward her goal by landing on a page with detailed information about the conference program, the sheer volume of information presented in a long, continuous list may be overwhelming. Abi's comprehensive information processing style means she needs to process all this information to feel confident in her decision, but the format may make it difficult for her to do so efficiently. Additionally, her low computer self-efficacy might make her feel uncertain about navigating such a dense page, potentially leading to frustration or confusion. Therefore, she may not feel she has all the information she needs in an easily digestible format.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 3. Attitude Towards Risk
-Why: The page is clearly structured with a detailed schedule that includes times and titles for various presentations and events. The presence of a scrollbar and the visible part of the schedule make it apparent that scrolling down will reveal more information. This aligns with Abi's comprehensive information processing style and her low-risk preference for straightforward actions. The detailed and organized presentation reassures Abi that she will find the information she needs by scrolling down.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: Scrolling down is a straightforward action that aligns with Abi's information processing style, as it allows her to gather more information comprehensively. The page layout is clear, and the content is organized in a way that makes it easy for Abi to understand that she needs to scroll down to find more details about the conference presentations. This action does not require high computer self-efficacy, as it is a basic and familiar task.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down reveals a detailed list of presentations, the sheer volume of information might be overwhelming for Abi. Her comprehensive information processing style means she needs to feel confident that she has all the necessary details, and the dense format could make it difficult for her to quickly ascertain that she has found everything she needs. Additionally, with low computer self-efficacy, Abi might feel unsure if she has missed any crucial information even after scrolling through the entire page. More structured and categorized presentation or navigation aids would help her feel more confident that she is making progress toward her goal.</t>
+Why: While scrolling down will provide Abi with a comprehensive list of presentations, the sheer volume of information presented in a long, continuous list may be overwhelming. Abi's comprehensive information processing style means she needs to process all this information to feel confident in her decision, but the format may make it difficult for her to do so efficiently. Additionally, her low computer self-efficacy might make her feel uncertain about navigating such a dense page, potentially leading to frustration or confusion. Therefore, she may not feel she has all the information she needs in an easily digestible format.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is densely populated with text and links, making it challenging for Abi to identify specific actions such as clicking on a distinguished paper. Given Abi's comprehensive information processing style, she might feel overwhelmed by the amount of information presented in a dense format. Her low computer self-efficacy means she may not feel confident in navigating through a cluttered page to find the specific link. Additionally, her preference for process-oriented learning suggests she would benefit from clearer, more structured instructions or visual cues to guide her actions. The page needs better organization and clearer labels to help Abi confidently find and click on the distinguished paper link.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page is very dense with information, and it is not immediately clear which papers are distinguished or how to identify them. Abi's comprehensive information processing style means she needs clear and organized information to make an informed decision. The lack of clear indicators or labels for distinguished papers may make it difficult for her to know what to do next. Additionally, her low computer self-efficacy might make her hesitant to click on links without being sure of their purpose, leading to uncertainty and potential frustration.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking on the distinguished paper, Abi lands on a detailed pop-up that provides comprehensive information about the paper, including its title, authors, and a summary. This aligns with her comprehensive information processing style, as the pop-up offers all the necessary details in a clear and organized manner. The detailed presentation and the presence of an "All Details" button provide additional information if needed, which supports her process-oriented learning style. Abi will feel confident she did the right thing and is making progress toward her goal of understanding what is being presented at the conference.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, authors, and a summary. This aligns with her comprehensive information processing style, as it provides the detailed information she needs to make an informed decision. The clear and organized presentation of information in the pop-up will help her feel confident that she is making progress toward her goal. Additionally, the straightforward nature of the pop-up interface supports her low computer self-efficacy, making it easy for her to understand and navigate.</t>
         </is>
       </c>
     </row>
@@ -525,25 +525,25 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The pop-up window provides detailed information about the distinguished paper but does not offer a clear way to navigate back to the main page. For Abi, who has low computer self-efficacy, the lack of a visible and intuitive way to return to the main page could be confusing and discouraging. Additionally, her comprehensive information processing style means she would prefer a clear and straightforward way to navigate between different sections of the program. The page could benefit from a more explicit navigation option, such as a "Back to Main Page" button, to help Abi feel confident in her actions.</t>
+Why: The current page does not provide a clear way to navigate back to the main page. Abi may not know how to return to the main page to check the tutorial information, as there is no obvious "back" button or link. This lack of clear navigation can be confusing, especially given Abi's low computer self-efficacy. Additionally, her comprehensive information processing style means she needs clear and straightforward navigation to feel confident in her actions. The absence of clear instructions or navigation options may leave her uncertain about how to proceed.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After going back to the main page, Abi will find a clear and organized layout that includes links to various sections of the conference, such as the program and tutorials. This aligns with her comprehensive information processing style and her preference for process-oriented learning. The main page provides clear navigation options that will allow her to explore different aspects of the conference program, making her feel confident that she is making progress toward her goal of finding out what is being presented at the conference. The structured design and clear labels will help Abi feel assured that she is accessing the information she needs.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After returning to the main page, Abi will see the same initial information about the conference, including keynotes and a schedule overview. However, the page does not provide a clear and direct way to find specific information about tutorials. Abi's comprehensive information processing style means she needs detailed and organized information to make an informed decision. The lack of clear navigation or direct links to tutorial information may leave her uncertain about whether she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to explore further if the information is not immediately clear and accessible.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page contains a lot of information and various sections, making it potentially overwhelming for Abi. The TutorialFest section is present, but it is not prominently highlighted or clearly separated from other sections. Given Abi's low computer self-efficacy, she might feel unsure about what to click on or how to proceed without clear and explicit instructions. Additionally, her preference for process-oriented learning means she would benefit from more structured guidance or visible links that clearly indicate where she needs to click to explore the TutorialFest section. The page needs better visual cues and perhaps a more prominent placement of the TutorialFest links to help Abi feel confident in taking this action.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "TutorialFest" links are clearly labeled and prominently placed on the page, making it easy for Abi to identify and understand that clicking on one of these links will provide more detailed information about the tutorials. This aligns with her comprehensive information processing style, as she is likely to seek out detailed information. Additionally, the action of clicking a clearly labeled link is straightforward and does not require high computer self-efficacy, making it a comfortable step for Abi to take.</t>
         </is>
       </c>
     </row>
@@ -551,8 +551,8 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking on the TutorialFest link, Abi lands on a page that provides very limited information. The page contains general sections such as "About," "Program," "List of Tutorials," and "Call for Tutorials," but it doesn't immediately present detailed information about the specific tutorials. Given Abi's comprehensive information processing style, she would expect more immediate and detailed information. Additionally, her low computer self-efficacy means she might feel unsure about where to click next to find the relevant details. The page lacks clear guidance and detailed content, making it difficult for Abi to feel confident that she is making progress toward her goal. More direct links to detailed tutorial descriptions or a structured overview on this page would better support her needs.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on the TutorialFest link, Abi lands on a page that does not immediately provide detailed information about the tutorials. The page has links to "About," "Program," "List of Tutorials," and "Call for Tutorials," but Abi will need to click on these links to find the specific information she needs. This additional navigation may be confusing and time-consuming for Abi, given her comprehensive information processing style and low computer self-efficacy. She may not feel confident that she is making progress toward her goal or that she has all the information she needs in an easily accessible format.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE4.xlsx
+++ b/outputs/MYRTLE4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, her comprehensive information processing style would lead her to gather detailed information about the conference presentations to make an informed decision.</t>
+Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, the page provides a comprehensive overview of the conference schedule and keynotes, which fits her information processing style of gathering detailed information before making decisions.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Scrolling down is a straightforward action that aligns with Abi's information processing style, as she tends to gather comprehensive information. The page layout is clear, and the content is organized in a way that makes it easy for Abi to understand that she needs to scroll down to find more information about the conference presentations. This action does not require high computer self-efficacy, as it is a basic and familiar task.</t>
+Why: The page is well-structured and provides clear headings and sections, making it easy for Abi to understand that she needs to scroll down to find more information about the conference. This aligns with her comprehensive information processing style. Additionally, scrolling is a basic action that does not require high computer self-efficacy, so Abi will feel confident in performing this action.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information about the conference, such as keynotes and a schedule overview, it does not provide comprehensive details about all the presentations. Abi's information processing style is comprehensive, and she would need detailed information about the presentations to make an informed decision. The page does not provide all the necessary information in a clear and detailed manner, which might leave Abi uncertain about whether she has all the information she needs. This could affect her confidence in making progress toward her goal.</t>
+Why: While scrolling down provides some information about the conference, such as keynotes and a schedule overview, it does not provide comprehensive details about all the presentations. Abi's information processing style requires detailed and complete information to feel confident in her decision-making. Additionally, the page does not clearly indicate where to find the full list of presentations, which might make Abi feel uncertain about whether she has all the necessary information. This could affect her confidence in making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page layout is clear and straightforward, with a visible section labeled "POPL 2019" that includes relevant information about the conference. Abi will likely understand that scrolling down will reveal more details about the conference, which aligns with her comprehensive information processing style. Additionally, scrolling is a basic action that does not require high computer self-efficacy, making it easy for Abi to perform this action.</t>
+Why: The page is well-organized with clear headings and sections, making it intuitive for Abi to understand that she needs to scroll down to find more information about the conference. This aligns with her comprehensive information processing style, as she can see that there is more content below. Additionally, scrolling is a basic action that does not require high computer self-efficacy, so Abi will feel confident in performing this action.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down, Abi will see some information about the conference, such as keynotes and a schedule overview. However, this information is not comprehensive enough for her to fully understand what is being presented at the conference. Abi's information processing style is comprehensive, and she would need detailed information about all the presentations to make an informed decision. The page does not provide all the necessary details, which might leave Abi uncertain about whether she has all the information she needs. This could affect her confidence in making progress toward her goal.</t>
+Why: While scrolling down provides some information about the conference, such as keynotes and a schedule overview, it does not provide comprehensive details about all the presentations. Abi's information processing style requires detailed and complete information to feel confident in her decision-making. Additionally, the page does not clearly indicate where to find the full list of presentations, which might make Abi feel uncertain about whether she has all the necessary information. This could affect her confidence in making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -471,16 +471,16 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The link labeled "Program of POPL 2019" is clearly visible and suggests that it will provide detailed information about the conference program. This aligns with Abi's comprehensive information processing style, as she is likely to click on the link to gather more information. Additionally, clicking on a clearly labeled link is a straightforward action that does not require high computer self-efficacy, making it easy for Abi to take this action.</t>
+Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify it as a relevant link to click for more information about the conference program. This aligns with her comprehensive information processing style, as she can see that this link will likely lead to detailed information. Additionally, the clear labeling and placement of the link help mitigate any potential issues with her computer self-efficacy, making her feel confident in taking this action.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While Abi will know she is making progress toward her goal by clicking the "Program of POPL 2019" link, the resulting page is overwhelming with a large amount of detailed information presented in a dense format. This could be difficult for Abi to process comprehensively, given her information processing style. Additionally, the sheer volume of information might affect her computer self-efficacy, making her feel uncertain about whether she has found all the necessary details. The page does not provide an easily navigable or summarized view of the presentations, which could hinder Abi's ability to efficiently gather the information she needs.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After clicking the "Program of POPL 2019" link, Abi lands on a page that provides a detailed and comprehensive list of the conference program, including all the presentations. This aligns with her information processing style, as she prefers to gather detailed information before making decisions. The extensive list of presentations will help her understand what is being presented at the conference, thus making progress toward her goal. Additionally, this detailed information aligns with her motivation to make an informed decision about attending the conference.</t>
         </is>
       </c>
     </row>
@@ -489,16 +489,16 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Scrolling down is a straightforward action that Abi is familiar with, and it aligns with her information processing style of gathering comprehensive information. The page layout, although dense, clearly indicates that more information is available by scrolling. This action does not require high computer self-efficacy, making it easy for Abi to perform. She will understand that scrolling down will reveal more details about the conference program.</t>
+Why: The page is structured in a way that clearly indicates there is more information available below the initial view, which aligns with Abi's comprehensive information processing style. She will understand that scrolling down will reveal additional details about the conference program. Additionally, scrolling is a basic action that does not require high computer self-efficacy, so Abi will feel confident in performing this action to gather the information she needs.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down, Abi will encounter a very dense and extensive list of presentations. While this page does provide detailed information, the sheer volume and format can be overwhelming. Abi's comprehensive information processing style means she needs to gather and understand all relevant details, but the dense layout may make it difficult for her to efficiently process the information. Additionally, the overwhelming amount of data might affect her computer self-efficacy, making her feel uncertain about whether she has found all the necessary details. This could hinder her confidence in making progress toward her goal and in getting all the information she needs.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After scrolling down, Abi will see a detailed and comprehensive list of the conference program, including all the presentations. This aligns with her information processing style, as she prefers to gather detailed information before making decisions. The extensive list of presentations will help her understand what is being presented at the conference, thus making progress toward her goal. Additionally, this detailed information aligns with her motivation to make an informed decision about attending the conference.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is very dense and contains a lot of information, which can be overwhelming for Abi. The distinguished papers are not clearly highlighted or separated from the rest of the content, making it difficult for Abi to identify them easily. Given her comprehensive information processing style, Abi might struggle to find the specific information she needs without clear guidance. Additionally, her lower computer self-efficacy means she might feel uncertain about clicking on links without clear indications of what they will lead to. The page does not provide a clear, step-by-step process for finding the distinguished papers, which does not align with Abi's process-oriented learning style.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page contains a long list of papers, but it does not provide clear instructions or indications that clicking on a distinguished paper will provide more detailed information. Abi's low computer self-efficacy means she might be hesitant to click on links without clear guidance on what to expect. Additionally, her preference for process-oriented learning means she would benefit from more explicit instructions or a step-by-step guide, which is not provided on this page. Therefore, she might struggle to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the distinguished paper, Abi will see a detailed pop-up with comprehensive information about the paper, including the title, authors, and a summary. This aligns with her comprehensive information processing style, as it provides the detailed information she needs to understand what is being presented. The clear and organized presentation of information in the pop-up will help Abi feel confident that she is making progress toward her goal and has found the necessary details. This positive experience will also support her computer self-efficacy, reinforcing that she did the right thing.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After clicking on the distinguished paper, Abi is presented with a detailed pop-up that provides comprehensive information about the paper, including the title, authors, and a summary of the content. This aligns with her information processing style, as she prefers to gather detailed information before making decisions. The detailed information provided in the pop-up will help her understand what is being presented at the conference, thus making progress toward her goal. Additionally, this detailed information aligns with her motivation to make an informed decision about attending the conference.</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The current page does not provide a clear and intuitive way for Abi to navigate back to the main page to check the tutorial. There is no visible "back" button or link that indicates how to return to the main page. Given Abi's comprehensive information processing style, she might feel uncertain about how to proceed without clear guidance. Additionally, her lower computer self-efficacy means she might be hesitant to take actions without clear instructions, and the lack of a step-by-step process does not align with her process-oriented learning style. This could make it difficult for Abi to confidently navigate back to the main page.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The current page does not provide clear instructions or a visible navigation option to go back to the main page. Abi's low computer self-efficacy means she might be hesitant to take actions without clear guidance on how to navigate back. Additionally, her preference for process-oriented learning means she would benefit from more explicit instructions or a step-by-step guide, which is not provided on this page. Therefore, she might struggle to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -533,8 +533,8 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: If Abi navigates back to the main page, she will recognize that she is making progress toward her goal because the main page provides a clear overview of the conference, including links to various sections such as the program and tutorials. The page is well-organized, and the "TutorialFest" section is prominently displayed, making it easy for Abi to find the information she needs. This aligns with her comprehensive information processing style, as she can gather detailed information about the tutorials. Additionally, the clear layout and navigation options will support her computer self-efficacy, making her feel confident that she is on the right track.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: If Abi navigates back to the main page, she will see the comprehensive overview of the conference, including the schedule and keynotes. This aligns with her information processing style, as she prefers to gather detailed information before making decisions. The main page provides a clear structure and detailed information about the conference, which will help her understand what is being presented and make progress toward her goal. Additionally, this detailed information aligns with her motivation to make an informed decision about attending the conference.</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "TutorialFest" section is clearly labeled and prominently displayed on the main page, making it easy for Abi to identify and click on it. This aligns with her comprehensive information processing style, as she can see that this section will provide detailed information about the tutorials. Additionally, clicking on a clearly labeled link is a straightforward action that does not require high computer self-efficacy, making it easy for Abi to take this action. The page is well-organized, and the clear labeling will help Abi feel confident that she is taking the right step to find the information she needs.</t>
+Why: The page is well-organized with clear headings and sections, making it intuitive for Abi to identify the "TutorialFest" links as relevant to her goal of finding out what is being presented at the conference. This aligns with her comprehensive information processing style, as she can see that these links will likely lead to detailed information about the tutorials. Additionally, the clear labeling and placement of the links help mitigate any potential issues with her computer self-efficacy, making her feel confident in taking this action.</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the TutorialFest link, Abi lands on a page that does not immediately provide detailed information about the tutorials. The page is sparse and primarily contains links to other sections (About, Program, List of Tutorials, Call for Tutorials) and some important dates. Abi's comprehensive information processing style means she needs detailed information to feel confident she is making progress toward her goal. The lack of immediate, detailed information on this page might make her feel uncertain about whether she is on the right track. Additionally, her lower computer self-efficacy might make her hesitant to click on additional links without clear indications of what they will lead to, potentially hindering her progress.</t>
+Why: After clicking on the TutorialFest link, Abi lands on a page that does not immediately provide detailed information about the tutorials. Instead, it presents a general overview with links to other sections like "About," "Program," and "List of Tutorials." Abi's comprehensive information processing style means she prefers to have detailed information readily available, and this page requires additional navigation to find the specific details she needs. Additionally, her low computer self-efficacy might make her hesitant to explore further links without clear guidance, making her uncertain if she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE4.xlsx
+++ b/outputs/MYRTLE4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is deciding whether to attend the conference, and knowing what is being presented is crucial for making that decision. This aligns with her motivation to accomplish her tasks effectively. Additionally, the page provides a comprehensive overview of the conference schedule and keynotes, which fits her information processing style of gathering detailed information before making decisions.</t>
+Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending is worthwhile. The page provides a schedule overview and information about keynotes and tutorials, which aligns with her comprehensive information processing style. This information would help her assess the value of attending the conference.</t>
         </is>
       </c>
     </row>
@@ -434,17 +434,17 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is well-structured and provides clear headings and sections, making it easy for Abi to understand that she needs to scroll down to find more information about the conference. This aligns with her comprehensive information processing style. Additionally, scrolling is a basic action that does not require high computer self-efficacy, so Abi will feel confident in performing this action.</t>
+Facets: 2. Information Processing Style
+Why: The page is structured with clear sections, including a schedule overview and keynotes, which aligns with Abi's comprehensive information processing style. Scrolling down to gather more information is a natural action for her to take in order to understand what is being presented at the conference.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information about the conference, such as keynotes and a schedule overview, it does not provide comprehensive details about all the presentations. Abi's information processing style requires detailed and complete information to feel confident in her decision-making. Additionally, the page does not clearly indicate where to find the full list of presentations, which might make Abi feel uncertain about whether she has all the necessary information. This could affect her confidence in making progress toward her goal.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi can see the schedule overview, keynotes, and tutorials, which provide detailed information about what is being presented at the conference. This aligns with her comprehensive information processing style, allowing her to feel confident that she is making progress toward her goal of deciding whether to attend.</t>
         </is>
       </c>
     </row>
@@ -452,17 +452,17 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is well-organized with clear headings and sections, making it intuitive for Abi to understand that she needs to scroll down to find more information about the conference. This aligns with her comprehensive information processing style, as she can see that there is more content below. Additionally, scrolling is a basic action that does not require high computer self-efficacy, so Abi will feel confident in performing this action.</t>
+Facets: 2. Information Processing Style
+Why: The page is well-organized with visible sections like the schedule overview and keynotes, which suggest that scrolling down will provide more information. This aligns with Abi's comprehensive information processing style, making it clear that scrolling is the right action to gather more details about the conference presentations.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information about the conference, such as keynotes and a schedule overview, it does not provide comprehensive details about all the presentations. Abi's information processing style requires detailed and complete information to feel confident in her decision-making. Additionally, the page does not clearly indicate where to find the full list of presentations, which might make Abi feel uncertain about whether she has all the necessary information. This could affect her confidence in making progress toward her goal.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi can view the schedule overview, keynotes, and tutorials, which provide comprehensive information about the conference presentations. This aligns with her information processing style, allowing her to recognize that she is making progress toward her goal of deciding whether to attend.</t>
         </is>
       </c>
     </row>
@@ -470,35 +470,35 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The link "Program of POPL 2019" is clearly labeled and prominently placed at the top of the page, making it easy for Abi to identify it as a relevant link to click for more information about the conference program. This aligns with her comprehensive information processing style, as she can see that this link will likely lead to detailed information. Additionally, the clear labeling and placement of the link help mitigate any potential issues with her computer self-efficacy, making her feel confident in taking this action.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style, making it a logical step for her to take.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking the "Program of POPL 2019" link, Abi lands on a page that provides a detailed and comprehensive list of the conference program, including all the presentations. This aligns with her information processing style, as she prefers to gather detailed information before making decisions. The extensive list of presentations will help her understand what is being presented at the conference, thus making progress toward her goal. Additionally, this detailed information aligns with her motivation to make an informed decision about attending the conference.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to quickly find specific details she needs. Additionally, her low computer self-efficacy could make navigating and interpreting such a dense page challenging, hindering her progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Answer: YES
+          <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is structured in a way that clearly indicates there is more information available below the initial view, which aligns with Abi's comprehensive information processing style. She will understand that scrolling down will reveal additional details about the conference program. Additionally, scrolling is a basic action that does not require high computer self-efficacy, so Abi will feel confident in performing this action to gather the information she needs.</t>
+Why: The page is densely packed with information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to efficiently find the specific details she needs. Additionally, her low computer self-efficacy could make navigating such a complex page challenging, leading to uncertainty about what to do next.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After scrolling down, Abi will see a detailed and comprehensive list of the conference program, including all the presentations. This aligns with her information processing style, as she prefers to gather detailed information before making decisions. The extensive list of presentations will help her understand what is being presented at the conference, thus making progress toward her goal. Additionally, this detailed information aligns with her motivation to make an informed decision about attending the conference.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page is overwhelming with a large amount of detailed information, making it difficult for Abi to determine if she is making progress. Her comprehensive information processing style and low computer self-efficacy may hinder her ability to efficiently find and interpret the necessary details, leaving her uncertain about her progress toward the goal.</t>
         </is>
       </c>
     </row>
@@ -506,17 +506,17 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page contains a long list of papers, but it does not provide clear instructions or indications that clicking on a distinguished paper will provide more detailed information. Abi's low computer self-efficacy means she might be hesitant to click on links without clear guidance on what to expect. Additionally, her preference for process-oriented learning means she would benefit from more explicit instructions or a step-by-step guide, which is not provided on this page. Therefore, she might struggle to know what to do at this step.</t>
+Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
+Why: The page is densely packed with information, making it difficult for Abi to identify the "distinguished paper" link. Her low computer self-efficacy and need for clear guidance may hinder her ability to confidently take this action. The lack of clear visual cues or instructions on the page adds to the challenge.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on the distinguished paper, Abi is presented with a detailed pop-up that provides comprehensive information about the paper, including the title, authors, and a summary of the content. This aligns with her information processing style, as she prefers to gather detailed information before making decisions. The detailed information provided in the pop-up will help her understand what is being presented at the conference, thus making progress toward her goal. Additionally, this detailed information aligns with her motivation to make an informed decision about attending the conference.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
+Why: Although Abi lands on a page with detailed information about distinguished papers, the error message at the top may cause confusion and uncertainty about whether she is making progress. Her low computer self-efficacy might make it difficult for her to interpret the error and feel confident that she is on the right track.</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The current page does not provide clear instructions or a visible navigation option to go back to the main page. Abi's low computer self-efficacy means she might be hesitant to take actions without clear guidance on how to navigate back. Additionally, her preference for process-oriented learning means she would benefit from more explicit instructions or a step-by-step guide, which is not provided on this page. Therefore, she might struggle to know what to do at this step.</t>
+Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
+Why: The page does not provide clear navigation options or instructions for returning to the main page. Abi's low computer self-efficacy and need for clear guidance may make it difficult for her to know how to go back and check the tutorial, leading to uncertainty about what to do next.</t>
         </is>
       </c>
     </row>
@@ -533,8 +533,8 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: If Abi navigates back to the main page, she will see the comprehensive overview of the conference, including the schedule and keynotes. This aligns with her information processing style, as she prefers to gather detailed information before making decisions. The main page provides a clear structure and detailed information about the conference, which will help her understand what is being presented and make progress toward her goal. Additionally, this detailed information aligns with her motivation to make an informed decision about attending the conference.</t>
+Facets: 2. Information Processing Style
+Why: Returning to the main page allows Abi to access the schedule overview and tutorial information, which are clearly presented. This aligns with her comprehensive information processing style, helping her feel confident that she is making progress toward her goal of understanding what is being presented at the conference.</t>
         </is>
       </c>
     </row>
@@ -542,8 +542,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is well-organized with clear headings and sections, making it intuitive for Abi to identify the "TutorialFest" links as relevant to her goal of finding out what is being presented at the conference. This aligns with her comprehensive information processing style, as she can see that these links will likely lead to detailed information about the tutorials. Additionally, the clear labeling and placement of the links help mitigate any potential issues with her computer self-efficacy, making her feel confident in taking this action.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The tutorial links are clearly labeled and visually distinct, making it easy for Abi to identify and click on them. This aligns with her motivation to find out more about the conference and her comprehensive information processing style, allowing her to confidently take this action.</t>
         </is>
       </c>
     </row>
@@ -552,7 +552,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on the TutorialFest link, Abi lands on a page that does not immediately provide detailed information about the tutorials. Instead, it presents a general overview with links to other sections like "About," "Program," and "List of Tutorials." Abi's comprehensive information processing style means she prefers to have detailed information readily available, and this page requires additional navigation to find the specific details she needs. Additionally, her low computer self-efficacy might make her hesitant to explore further links without clear guidance, making her uncertain if she is making progress toward her goal.</t>
+Why: The page provides limited information about the tutorials, mainly focusing on the date and evaluation committee. Abi may not feel she has made significant progress toward her goal of understanding the content of the tutorials. Her comprehensive information processing style and low computer self-efficacy might leave her uncertain about what to do next to find more detailed information.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE4.xlsx
+++ b/outputs/MYRTLE4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending is worthwhile. The page provides a schedule overview and information about keynotes and tutorials, which aligns with her comprehensive information processing style. This information would help her assess the value of attending the conference.</t>
+Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and information about keynotes and tutorials, which aligns with her comprehensive information processing style. This would help her gather the necessary details to make an informed decision.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page is structured with clear sections, including a schedule overview and keynotes, which aligns with Abi's comprehensive information processing style. Scrolling down to gather more information is a natural action for her to take in order to understand what is being presented at the conference.</t>
+Why: Scrolling down to gather more information aligns with Abi's comprehensive information processing style. The page provides a clear overview of the conference schedule, keynotes, and tutorials, which would help her understand what is being presented. This action is straightforward and does not require technical expertise, making it suitable for Abi.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: By scrolling down, Abi can see the schedule overview, keynotes, and tutorials, which provide detailed information about what is being presented at the conference. This aligns with her comprehensive information processing style, allowing her to feel confident that she is making progress toward her goal of deciding whether to attend.</t>
+Why: By scrolling down, Abi can see the schedule overview, keynotes, and tutorials, which are relevant to her goal of finding out what is being presented at the conference. This information is clearly laid out, allowing her to feel confident that she is making progress toward her goal. The page provides a comprehensive view, aligning with her information processing style.</t>
         </is>
       </c>
     </row>
@@ -453,16 +453,16 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page is well-organized with visible sections like the schedule overview and keynotes, which suggest that scrolling down will provide more information. This aligns with Abi's comprehensive information processing style, making it clear that scrolling is the right action to gather more details about the conference presentations.</t>
+Why: The page layout suggests that more information is available by scrolling down, which aligns with Abi's comprehensive information processing style. The presence of a schedule overview and other relevant sections indicates that scrolling will provide additional details about the conference, making it a logical action for her to take.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: By scrolling down, Abi can view the schedule overview, keynotes, and tutorials, which provide comprehensive information about the conference presentations. This aligns with her information processing style, allowing her to recognize that she is making progress toward her goal of deciding whether to attend.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: While scrolling down provides some information, it may not be comprehensive enough for Abi to feel confident she has all the details she needs. The page offers an overview but lacks specific details about each session or presentation. Abi might not feel she has made complete progress toward her goal due to her need for detailed information and her low confidence in navigating unfamiliar tasks.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style, making it a logical step for her to take.</t>
+Why: The link labeled "Program of POPL 2019" clearly indicates that it will provide information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style. The page is straightforward, making it easy for her to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -480,79 +480,79 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to quickly find specific details she needs. Additionally, her low computer self-efficacy could make navigating and interpreting such a dense page challenging, hindering her progress toward her goal.</t>
+Why: The page provides a detailed list of sessions, but the sheer volume of information may be overwhelming for Abi. Her comprehensive information processing style might make it difficult for her to quickly find the specific details she needs. Additionally, her low computer self-efficacy could make navigating and interpreting this extensive list challenging, leaving her uncertain about her progress toward her goal.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page is long and detailed, indicating that more information is available below. Abi will likely understand that scrolling is necessary to view the full program and gather the details she needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is densely packed with information, which may be overwhelming for Abi. Her comprehensive information processing style might make it difficult to efficiently find the specific details she needs. Additionally, her low computer self-efficacy could make navigating such a complex page challenging, leading to uncertainty about what to do next.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+Why: Although scrolling down provides more information, the extensive and detailed list may overwhelm Abi. Her comprehensive information processing style might make it difficult to quickly identify relevant sessions, and her low computer self-efficacy could lead to uncertainty about whether she has gathered all necessary information. This could leave her unsure about her progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is densely packed with information, and it may not be immediately clear to Abi which link corresponds to the "distinguished paper." Her low computer self-efficacy might make her hesitant to click without clear guidance, and her preference for process-oriented learning means she might struggle without explicit instructions. The page does not provide enough context to make this action intuitive for her.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After clicking on the distinguished paper, Abi lands on a page that clearly lists the distinguished papers with their titles and times. This aligns with her motivation to find out what is being presented and her comprehensive information processing style. The page provides specific and relevant information, helping her feel confident that she is making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide a clear way to navigate back to the main page or check tutorials. Abi's low computer self-efficacy might make her hesitant to explore without explicit navigation options, and her preference for process-oriented learning means she might struggle without clear instructions. The page lacks guidance for this action.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: Returning to the main page allows Abi to access the tutorial information, which is clearly displayed. This aligns with her motivation to explore the program and her comprehensive information processing style. The main page provides a clear overview, helping her feel confident that she is making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The tutorial links are clearly labeled under "TutorialFest," making it easy for Abi to understand that clicking them will provide more information about the tutorials. This aligns with her motivation to explore the program and her comprehensive information processing style, as she seeks detailed information about the conference offerings.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page is overwhelming with a large amount of detailed information, making it difficult for Abi to determine if she is making progress. Her comprehensive information processing style and low computer self-efficacy may hinder her ability to efficiently find and interpret the necessary details, leaving her uncertain about her progress toward the goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: The page is densely packed with information, making it difficult for Abi to identify the "distinguished paper" link. Her low computer self-efficacy and need for clear guidance may hinder her ability to confidently take this action. The lack of clear visual cues or instructions on the page adds to the challenge.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: Although Abi lands on a page with detailed information about distinguished papers, the error message at the top may cause confusion and uncertainty about whether she is making progress. Her low computer self-efficacy might make it difficult for her to interpret the error and feel confident that she is on the right track.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 2. Information Processing Style
-Why: The page does not provide clear navigation options or instructions for returning to the main page. Abi's low computer self-efficacy and need for clear guidance may make it difficult for her to know how to go back and check the tutorial, leading to uncertainty about what to do next.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Returning to the main page allows Abi to access the schedule overview and tutorial information, which are clearly presented. This aligns with her comprehensive information processing style, helping her feel confident that she is making progress toward her goal of understanding what is being presented at the conference.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The tutorial links are clearly labeled and visually distinct, making it easy for Abi to identify and click on them. This aligns with her motivation to find out more about the conference and her comprehensive information processing style, allowing her to confidently take this action.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides limited information about the tutorials, mainly focusing on the date and evaluation committee. Abi may not feel she has made significant progress toward her goal of understanding the content of the tutorials. Her comprehensive information processing style and low computer self-efficacy might leave her uncertain about what to do next to find more detailed information.</t>
+Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi's comprehensive information processing style requires more specific information about the tutorials themselves. Her low computer self-efficacy might make her uncertain about where to find additional details, leaving her unsure if she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/MYRTLE4.xlsx
+++ b/outputs/MYRTLE4.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and information about keynotes and tutorials, which aligns with her comprehensive information processing style. This would help her gather the necessary details to make an informed decision.</t>
+Why: Abi is likely motivated to find out what is being presented at the conference to decide whether attending would be beneficial. The page provides a schedule overview and links to papers and events, aligning with her comprehensive information processing style.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down to gather more information aligns with Abi's comprehensive information processing style. The page provides a clear overview of the conference schedule, keynotes, and tutorials, which would help her understand what is being presented. This action is straightforward and does not require technical expertise, making it suitable for Abi.</t>
+Why: The page provides a clear overview of the conference schedule and keynotes, which aligns with Abi's comprehensive information processing style. Scrolling down to gather more information is a natural step for her to take.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: By scrolling down, Abi can see the schedule overview, keynotes, and tutorials, which are relevant to her goal of finding out what is being presented at the conference. This information is clearly laid out, allowing her to feel confident that she is making progress toward her goal. The page provides a comprehensive view, aligning with her information processing style.</t>
+Why: By scrolling down, Abi can see the schedule overview and keynotes, which provide relevant information about what is being presented at the conference. This aligns with her comprehensive information processing style, confirming she is making progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -453,106 +453,106 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page layout suggests that more information is available by scrolling down, which aligns with Abi's comprehensive information processing style. The presence of a schedule overview and other relevant sections indicates that scrolling will provide additional details about the conference, making it a logical action for her to take.</t>
+Why: The page layout suggests that more information is available by scrolling down, which aligns with Abi's comprehensive information processing style. She will likely know to scroll to find additional details about the conference.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: By scrolling down, Abi can view the schedule overview and keynotes, which provide relevant information about the conference presentations. This confirms she is making progress toward her goal and aligns with her comprehensive information processing style.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The link labeled "Program of POPL 2019" is clearly visible and suggests it will provide detailed information about the conference presentations. This aligns with Abi's motivation to gather comprehensive information, making it likely she will know to click it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down provides some information, it may not be comprehensive enough for Abi to feel confident she has all the details she needs. The page offers an overview but lacks specific details about each session or presentation. Abi might not feel she has made complete progress toward her goal due to her need for detailed information and her low confidence in navigating unfamiliar tasks.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The link labeled "Program of POPL 2019" clearly indicates that it will provide information about the conference program. This aligns with Abi's motivation to find out what is being presented and her comprehensive information processing style. The page is straightforward, making it easy for her to know what to do at this step.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+Why: The page contains a large amount of detailed information, which may be overwhelming for Abi. Her comprehensive information processing style might struggle with the volume of data, and her low computer self-efficacy could make it difficult for her to feel confident that she is making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page is structured in a way that suggests more information is available by scrolling. This aligns with Abi's comprehensive information processing style, so she will likely know to scroll to find additional details.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides a detailed list of sessions, but the sheer volume of information may be overwhelming for Abi. Her comprehensive information processing style might make it difficult for her to quickly find the specific details she needs. Additionally, her low computer self-efficacy could make navigating and interpreting this extensive list challenging, leaving her uncertain about her progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling down is a straightforward action that aligns with Abi's comprehensive information processing style. The page is long and detailed, indicating that more information is available below. Abi will likely understand that scrolling is necessary to view the full program and gather the details she needs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+Why: Although scrolling provides more information, the sheer volume and complexity of the data may overwhelm Abi. Her comprehensive information processing style might not be sufficient to easily navigate and extract the needed details, and her low computer self-efficacy could hinder her confidence in making progress.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is dense with information, and without clear guidance or labels indicating which papers are distinguished, Abi may struggle to identify the correct action. Her low computer self-efficacy and preference for process-oriented learning mean she might not feel confident in clicking without explicit instructions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page clearly labels "Distinguished Paper," making it easy for Abi to see that she is viewing the right information. This aligns with her comprehensive information processing style, helping her feel confident that she is making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide a clear way to navigate back to the main page or check tutorials. Abi's low computer self-efficacy and preference for clear instructions may make it difficult for her to know how to proceed without explicit navigation options.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Returning to the main page allows Abi to see the schedule overview and tutorial information, which are clearly presented. This aligns with her comprehensive information processing style, helping her feel confident that she is making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The "TutorialFest" section is clearly labeled and visually distinct, making it easy for Abi to identify and click on a link. This aligns with her motivation to gather information and her comprehensive information processing style.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Although scrolling down provides more information, the extensive and detailed list may overwhelm Abi. Her comprehensive information processing style might make it difficult to quickly identify relevant sessions, and her low computer self-efficacy could lead to uncertainty about whether she has gathered all necessary information. This could leave her unsure about her progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is densely packed with information, and it may not be immediately clear to Abi which link corresponds to the "distinguished paper." Her low computer self-efficacy might make her hesitant to click without clear guidance, and her preference for process-oriented learning means she might struggle without explicit instructions. The page does not provide enough context to make this action intuitive for her.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on the distinguished paper, Abi lands on a page that clearly lists the distinguished papers with their titles and times. This aligns with her motivation to find out what is being presented and her comprehensive information processing style. The page provides specific and relevant information, helping her feel confident that she is making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide a clear way to navigate back to the main page or check tutorials. Abi's low computer self-efficacy might make her hesitant to explore without explicit navigation options, and her preference for process-oriented learning means she might struggle without clear instructions. The page lacks guidance for this action.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: Returning to the main page allows Abi to access the tutorial information, which is clearly displayed. This aligns with her motivation to explore the program and her comprehensive information processing style. The main page provides a clear overview, helping her feel confident that she is making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: The tutorial links are clearly labeled under "TutorialFest," making it easy for Abi to understand that clicking them will provide more information about the tutorials. This aligns with her motivation to explore the program and her comprehensive information processing style, as she seeks detailed information about the conference offerings.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page provides limited information about the tutorials, only mentioning the date and general details. Abi's comprehensive information processing style requires more specific information about the tutorials themselves. Her low computer self-efficacy might make her uncertain about where to find additional details, leaving her unsure if she is making progress toward her goal.</t>
+Why: The page provides limited information about the tutorials, only mentioning the date and evaluation committee. Abi may not feel she has made significant progress toward her goal of understanding what is being presented, given her need for comprehensive information and low confidence in navigating sparse details.</t>
         </is>
       </c>
     </row>
